--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_PB2.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_PB2.xlsx
@@ -1337,9 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1555,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1582,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -1609,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="16" t="s">
@@ -1636,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -1740,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -1765,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="25" t="s">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_PB2.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_PB2.xlsx
@@ -272,15 +272,6 @@
 link_Click(PB2_test_link);
 wait(2);
 validate2;
-link_Click(screenorientationpb_test_link);
-validate3;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(PB2_test_link);
-wait(2);
-validate2;
 link_Click(signaturepb_test_link);
 wait(2);
 SwitchApp(NATIVE_APP);
@@ -385,29 +376,6 @@
 link_Click(PB2_test_link);
 wait(2);
 validate2;
-link_Click(applicationpb_test_link);
-validate3;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB2 Tests
-};
-validate3
-{
-validate_AppMinimized=homescreen
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(PB2_test_link);
-wait(2);
-validate2;
 link_Click(genericpb_test_link);
 ClickRunTest(captureButton_xpath);
 validate3;</t>
@@ -466,28 +434,6 @@
 {
 validate_PageTitle=PB2 Tests
 };
-validate3
-{
-validate_isIconDisplayed=MinimizeButton_xpath,true
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_isIconDisplayed=MinimizeButton_xpath,false
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB2 Tests
-};
 validate4
 {
 validate_PageTitle=Reload Button Page
@@ -502,28 +448,6 @@
   </si>
   <si>
     <t>QuitButton</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=PB2 Tests
-};
-validate3
-{
-validate_isIconDisplayed=QuitButton_xpath,true
-};
-validate4
-{
-validate_isIconDisplayed=QuitButton_xpath,false
-};
-validate5
-{
-validate_AppMinimized=homescreen
-};</t>
   </si>
   <si>
     <t>FileTransfer Http send</t>
@@ -746,6 +670,87 @@
   </si>
   <si>
     <t>PB2</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(PB2_test_link);
+wait(2);
+validate2;
+link_Click(applicationpb_test_link);
+wait(5);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB2 Tests
+};
+validate3
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(PB2_test_link);
+wait(2);
+validate2;
+link_Click(screenorientationpb_test_link);
+validate3;
+press_Key(Back);
+wait(2);
+link_Click(screenorientationpbnormal_test_link);
+wait(5);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB2 Tests
+};
+validate3
+{
+validate_isIconDisplayed=QuitButton_xpath,true
+};
+validate4
+{
+validate_isIconDisplayed=QuitButton_xpath,false
+};
+validate5
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=PB2 Tests
+};
+validate3
+{
+validate_isIconDisplayed=MinimizeButton_xpath,true
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_isIconDisplayed=MinimizeButton_xpath,false
+};</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1458,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1482,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>25</v>
@@ -1509,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>24</v>
@@ -1536,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>24</v>
@@ -1563,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1590,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>24</v>
@@ -1617,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>24</v>
@@ -1644,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>29</v>
@@ -1653,7 +1658,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="135.75" thickBot="1">
+    <row r="12" spans="1:11" ht="147" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1671,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1721,7 +1726,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>36</v>
@@ -1730,7 +1735,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" ht="153.75" thickBot="1">
+    <row r="15" spans="1:11" s="19" customFormat="1" ht="166.5" thickBot="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -1746,7 +1751,7 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>40</v>
@@ -1771,7 +1776,7 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>39</v>
@@ -1798,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1819,14 +1824,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1850,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="281.25" thickBot="1">
+    <row r="20" spans="1:11" ht="294" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1871,16 +1876,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1898,22 +1903,22 @@
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="281.25" thickBot="1">
+    <row r="22" spans="1:11" ht="294" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1931,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1952,10 +1957,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>24</v>
@@ -1973,10 +1978,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>24</v>
